--- a/src/test/resources/TestData/Test.xlsx
+++ b/src/test/resources/TestData/Test.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdallah\Desktop\New folder (5)\BaytTest\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89AD1D4-2530-438C-8DEF-056F77885CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E798AC8F-7CBF-422B-A817-EA00AABEE45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="2016" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17304" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ApplyPage" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:R24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -365,7 +362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -395,4 +392,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9123ECE-EFF5-49AC-98C4-AB4F519D943A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>